--- a/split_data/standard_in/YiLan/tech.xlsx
+++ b/split_data/standard_in/YiLan/tech.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,7 +1402,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>頭城鎮台2線129k+309m梗枋國小南下,速限50公里</t>
+          <t>頭城鎮台2線123k+642m大溪段北上,速限50公里</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>頭城鎮台2線131k+121m外澳段南下,速限50公里、北上,速限60公里</t>
+          <t>頭城鎮台2線129k+309m梗枋國小南下,速限50公里</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1464,7 +1464,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>頭城鎮台2線133k+769m港口段南下,速限60公里</t>
+          <t>頭城鎮台2線131k+121m外澳段南下,速限50公里、北上,速限60公里</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>頭城鎮台2線139k+738m竹安段南下,速限60公里</t>
+          <t>頭城鎮台2線133k+769m港口段南下,速限60公里</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1526,7 +1526,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>頭城鎮191甲線2k+50m中崙段南下,速限60公里</t>
+          <t>頭城鎮台2線139k+738m竹安段南下,速限60公里</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>頭城鎮台9線69k+20m北宜路一段南下,速限60公里</t>
+          <t>頭城鎮191甲線2k+50m中崙段南下,速限60公里</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1588,7 +1588,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>頭城鎮宜3線3k+850m宜三路南下,速限50公里</t>
+          <t>頭城鎮台9線69k+20m北宜路一段南下,速限60公里</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>礁溪鄉191線4k瑪僯段北上,速限60公里</t>
+          <t>頭城鎮宜3線3k+850m宜三路南下,速限50公里</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>礁溪鄉191甲線6k+600m玉田段北上,速限60公里</t>
+          <t>礁溪鄉191線4k瑪僯段北上,速限60公里</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1681,7 +1681,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>礁溪鄉宜4線4k+280m大塭段東向,速限50公里</t>
+          <t>礁溪鄉191甲線6k+600m玉田段北上,速限60公里</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>礁溪鄉份尾三路北上(份尾橋南側100公尺處),速限50公里</t>
+          <t>礁溪鄉宜4線4k+280m大塭段東向,速限50公里</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西雙向</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線142k+480m大福段北上,速限60公里</t>
+          <t>礁溪鄉份尾三路北上(份尾橋南側100公尺處),速限50公里</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線150k+199m公館段南下,速限60公里</t>
+          <t>壯圍鄉台2線142k+480m大福段北上,速限60公里</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1805,13 +1805,13 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>壯圍鄉191線與雪隧路口南下</t>
+          <t>壯圍鄉台2線150k+199m公館段南下,速限60公里</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1823,7 +1823,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>闖紅燈照相</t>
+          <t>雷達測速照相</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1836,13 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線147k+40m過嶺國小南下,速限60公里</t>
+          <t>壯圍鄉191線與雪隧路口南下</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1854,7 +1854,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>雷達測速照相</t>
+          <t>闖紅燈照相</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>壯圍鄉台2線148k+400m後埤段北上,速限60公里</t>
+          <t>壯圍鄉台2線147k+40m過嶺國小南下,速限60公里</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1898,7 +1898,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>壯圍鄉宜20線1k+150m新南段西向,速限60公里</t>
+          <t>壯圍鄉台2線148k+400m後埤段北上,速限60公里</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>壯圍鄉宜16線7k+500m新南段西向,速限50公里</t>
+          <t>壯圍鄉宜20線1k+150m新南段西向,速限60公里</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>壯圍鄉宜16線9k+500m美福段東向,速限50公里</t>
+          <t>壯圍鄉宜9線3k+100m中央路三段南下,速限大車50公里、小車60公里</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>頭城鎮台2線128k+65m梗枋地磅站北上，速限60公里</t>
+          <t>壯圍鄉宜16線7k+500m新南段西向,速限50公里</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2002,14 +2002,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西雙向</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>科技執法</t>
+          <t>雷達測速照相</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>頭城鎮台9線68k+600m至56k+600m南往北,速限40公里</t>
+          <t>壯圍鄉宜16線9k+500m美福段東向,速限50公里</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2033,14 +2033,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西雙向</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>科技執法</t>
+          <t>雷達測速照相</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>頭城鎮台9線56k+600m至68k+600m北往南,速限40公里</t>
+          <t>頭城鎮台2線128k+65m梗枋地磅站北上，速限60公里</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2線164k+390m港邊段南下,速限70公里</t>
+          <t>頭城鎮台9線68k+600m至56k+600m南往北,速限40公里</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2099,14 +2099,10 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>蘇澳分局</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>雷達測速照相</t>
+          <t>科技執法</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2115,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2戊線12k+215m移山路北上,速限60公里</t>
+          <t>頭城鎮台9線56k+600m至68k+600m北往南,速限40公里</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2137,7 +2133,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>雷達測速照相</t>
+          <t>科技執法</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2146,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蘇澳鎮台2線166k+259m蘇澳港段南下，速限60公里</t>
+          <t>蘇澳鎮台2線164k+390m港邊段南下,速限70公里</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2165,7 +2161,11 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>蘇澳分局</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>雷達測速照相</t>
@@ -2181,7 +2181,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線100k+224m新城段北上,速限60公里</t>
+          <t>蘇澳鎮台2戊線12k+215m移山路北上,速限60公里</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線102k+200m聖湖段南下,速限60公里</t>
+          <t>蘇澳鎮台2線166k+259m蘇澳港段南下，速限60公里</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線117k+772m新澳隧道北上,速限40公里</t>
+          <t>蘇澳鎮台9線100k+224m新城段北上,速限60公里</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2274,7 +2274,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線103k+562m南下,速限50公里</t>
+          <t>蘇澳鎮台9線102k+200m聖湖段南下,速限60公里</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2305,7 +2305,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>南澳鄉台9線123k+570ｍ南澳段北上,速限50公里</t>
+          <t>蘇澳鎮台9線117k+772m新澳隧道北上,速限40公里</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2336,7 +2336,7 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線109k+240m東澳隧道南下,速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線103k+562m南下,速限50公里</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>南下方向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>南澳鄉台9線110k+300m東澳隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線123k+570ｍ南澳段北上,速限50公里</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>南澳鄉台9線130k+492m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線109k+240m東澳隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>南澳鄉台9線133k+289m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線110k+300m東澳隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>南下方向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>南澳鄉台9線135k+910m觀音隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線130k+492m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>南澳鄉台9線130k+347m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線133k+289m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南下方向</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南澳鄉台9線133k+174m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線135k+910m觀音隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南下方向</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2553,7 +2553,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>南澳鄉台9線135k+841m觀音隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線130k+347m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2584,7 +2584,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>南澳鄉台9線138k+677m谷風隧道南下,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線133k+174m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>南下方向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2615,7 +2615,7 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>南澳鄉台9線139k+667m谷風隧道北上,速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線135k+841m觀音隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2646,13 +2646,13 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蘇澳鎮台9線108k+269m至南澳鄉台9線110k+995m(東澳隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線138k+677m谷風隧道南下,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>測速跨線未保安距</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2664,7 +2664,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>科技執法</t>
+          <t>雷達測速照相</t>
         </is>
       </c>
     </row>
@@ -2677,13 +2677,13 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>南澳鎮台9線110k+960m至蘇澳鎮台9線108k+224m(東澳隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線139k+667m谷風隧道北上,速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>測速跨線未保安距</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2695,7 +2695,7 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>科技執法</t>
+          <t>雷達測速照相</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>南澳鄉台9線129k+404m至131k+860m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>蘇澳鎮台9線108k+269m至南澳鄉台9線110k+995m(東澳隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2739,7 +2739,7 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>南澳鄉台9線131k+860m至134k+538m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鎮台9線110k+960m至蘇澳鎮台9線108k+224m(東澳隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>南下方向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>南澳鄉台9線134k+538m至136k+883m(觀音隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線129k+404m至131k+860m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>南澳鄉台9線136k+912m至134k+405m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線131k+860m至134k+538m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南下方向</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>南澳鄉台9線134k+405m至131k+849m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線134k+538m至136k+883m(觀音隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>北上方向</t>
+          <t>南下方向</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>南澳鄉台9線131k+849m至129k+360m(觀音隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線136k+912m至134k+405m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2894,7 +2894,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>南澳鄉台9線137k+295m至141k+458m(谷風隧道南下),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線134k+405m至131k+849m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>南下方向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2925,7 +2925,7 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>南澳鄉台9線141k+420m至137k+205m(谷風隧道北上),速限70公里，最低速限50公里</t>
+          <t>南澳鄉台9線131k+849m至129k+360m(觀音隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2956,29 +2956,25 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>三星鄉台7丙線18k+342ｍ大隱段東向,速限60公里</t>
+          <t>南澳鄉台9線137k+295m至141k+458m(谷風隧道南下),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>測速跨線未保安距</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南下方向</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>三星分局</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>雷達測速照相</t>
+          <t>科技執法</t>
         </is>
       </c>
     </row>
@@ -2991,25 +2987,25 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>三星鄉台7丙線19k+865m大隱段西向,速限60公里</t>
+          <t>南澳鄉台9線141k+420m至137k+205m(谷風隧道北上),速限70公里，最低速限50公里</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>測速跨線未保安距</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>北上方向</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>雷達測速照相</t>
+          <t>科技執法</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3018,7 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>三星鄉宜61線3k+800ｍ大洲段北上,速限60公里</t>
+          <t>三星鄉台7丙線18k+342ｍ大隱段東向,速限60公里</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3033,11 +3029,15 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西雙向</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>三星分局</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>雷達測速照相</t>
@@ -3053,7 +3053,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>三星鄉宜61線3k+600ｍ大洲段南下,速限60公里</t>
+          <t>三星鄉台7丙線19k+865m大隱段西向,速限60公里</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西雙向</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3084,7 +3084,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>三星鄉196線3k+800ｍ萬富段東向,速限60公里</t>
+          <t>三星鄉宜61線3k+800ｍ大洲段北上,速限60公里</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3115,7 +3115,7 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>三星鄉196線7k+900ｍ大埔段西向,速限60公里</t>
+          <t>三星鄉宜61線3k+600ｍ大洲段南下,速限60公里</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>東西雙向</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3146,7 +3146,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>三星鄉196線11k大洲段東向,速限50公里</t>
+          <t>三星鄉196線3k+800ｍ萬富段東向,速限60公里</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3163,6 +3163,68 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
+        <is>
+          <t>雷達測速照相</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>三星鄉196線7k+900ｍ大埔段西向,速限60公里</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>東西雙向</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>雷達測速照相</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>三星鄉196線11k大洲段東向,速限50公里</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>東西雙向</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
         <is>
           <t>雷達測速照相</t>
         </is>
